--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscojaviercaverolopez/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B65271A-F15E-554B-A388-E2F1236C1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDF6EEA-EA71-0C4D-852B-917E713D0E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{A1C39C5A-B6FC-7647-8DE8-728A0B5F02CC}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20140" xr2:uid="{A1C39C5A-B6FC-7647-8DE8-728A0B5F02CC}"/>
   </bookViews>
   <sheets>
     <sheet name="ICSOC24 Workshop" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -377,6 +377,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
@@ -718,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282EC4BF-BF4F-CF44-9116-405633DEE252}">
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,7 +1595,7 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -1609,7 +1611,7 @@
         <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="13">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -2530,8 +2532,7 @@
         <v>0.75</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" si="2"/>
@@ -2546,8 +2547,7 @@
         <v>1</v>
       </c>
       <c r="AD12" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <f t="shared" si="3"/>
@@ -2562,8 +2562,7 @@
         <v>0.75</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
         <f t="shared" si="4"/>
@@ -2838,12 +2837,10 @@
         <v>1</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
@@ -2854,12 +2851,10 @@
         <v>1</v>
       </c>
       <c r="AC14" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f t="shared" si="3"/>
@@ -2870,12 +2865,10 @@
         <v>1</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <f t="shared" si="4"/>
@@ -2997,7 +2990,7 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -3013,7 +3006,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD15" s="13">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -3029,7 +3022,7 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="12">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3777,7 +3770,7 @@
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -3793,7 +3786,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="13">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -4398,12 +4391,10 @@
         <v>1</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
@@ -4414,12 +4405,10 @@
         <v>1</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <f t="shared" si="3"/>
@@ -4430,12 +4419,10 @@
         <v>1</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
         <f t="shared" si="4"/>
@@ -4866,8 +4853,7 @@
         <v>1</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <f t="shared" si="12"/>
@@ -4882,8 +4868,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="6">
         <f t="shared" si="15"/>
@@ -4898,8 +4883,7 @@
         <v>1</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27">
         <f t="shared" si="18"/>
@@ -5561,12 +5545,12 @@
         <v>0.88190584009919326</v>
       </c>
       <c r="Y34" s="3">
-        <f>GEOMEAN(Y3,Y6,Y10:Y12,Y15:Y17,Y20,Y22,Y26,Y30)</f>
-        <v>0.60640358547961837</v>
+        <f>GEOMEAN(Y3,Y6,Y10:Y12,Y14:Y17,Y20,Y22,Y26:Y27,Y30,Y24)</f>
+        <v>0.67020769268416436</v>
       </c>
       <c r="Z34" s="3">
-        <f>GEOMEAN(Z3,Z10:Z11,Z16:Z17,Z22,Z26:Z27,Z30)</f>
-        <v>0.47462435452897828</v>
+        <f>SUM(Z3,Z10:Z12,Z14:Z17,Z22,Z26:Z27,Z30,Z6,Z20,Z24)/COUNT(Z3,Z10:Z12,Z14:Z17,Z22,Z26:Z27,Z30,Z6,Z20,Z24)</f>
+        <v>0.53500000000000003</v>
       </c>
       <c r="AA34" s="3">
         <f>GEOMEAN(AA2:AA31)</f>
@@ -5577,12 +5561,12 @@
         <v>0.91110399601749792</v>
       </c>
       <c r="AC34" s="3">
-        <f>GEOMEAN(AC3,AC6,AC10:AC12,AC15:AC17,AC20,AC22,AC26,AC30)</f>
-        <v>0.80141009509797845</v>
+        <f>GEOMEAN(AC3,AC6,AC10:AC12,AC14:AC17,AC20,AC22,AC26:AC27,AC30,AC24)</f>
+        <v>0.83769099527371127</v>
       </c>
       <c r="AD34" s="3">
-        <f>GEOMEAN(AD3,AD10:AD11,AD16:AD17,AD22,AD26:AD27,AD30)</f>
-        <v>0.54426078276241319</v>
+        <f>SUM(AD3,AD10:AD12,AD14:AD17,AD22,AD26:AD27,AD30,AD20,AD24)/COUNT(AD3,AD10:AD12,AD14:AD17,AD22,AD26:AD27,AD30,AD20,AD24)</f>
+        <v>0.63044217687074833</v>
       </c>
       <c r="AE34">
         <f>GEOMEAN(AE2:AE31)</f>
@@ -5593,12 +5577,12 @@
         <v>0.96380219821679225</v>
       </c>
       <c r="AG34" s="3">
-        <f>GEOMEAN(AG3,AG6,AG10:AG12,AG15:AG17,AG20,AG22,AG26,AG30)</f>
-        <v>0.73051779157826269</v>
+        <f>GEOMEAN(AG3,AG6,AG10:AG12,AG14:AG17,AG20,AG22,AG26:AG27,AG30,AG24)</f>
+        <v>0.77786572926087372</v>
       </c>
       <c r="AH34" s="3">
-        <f>GEOMEAN(AH3,AH10:AH11,AH16:AH17,AH22,AH26:AH27,AH30)</f>
-        <v>0.80832330899510463</v>
+        <f>SUM(AH3,AH10:AH12,AH14:AH17,AH22,AH26:AH27,AH30,AH24)/COUNT(AH3,AH10:AH12,AH14:AH17,AH22,AH26:AH27,AH30,AH24)</f>
+        <v>0.81043956043956034</v>
       </c>
       <c r="AM34" s="3"/>
       <c r="AQ34" s="3">
@@ -5619,11 +5603,11 @@
         <v>0.96296296296296291</v>
       </c>
       <c r="Y35" s="3">
-        <f>MEDIAN(Y3,Y6,Y10:Y12,Y15:Y17,Y20,Y22,Y26,Y30)</f>
-        <v>0.70833333333333326</v>
+        <f>MEDIAN(Y3,Y6,Y10:Y12,Y14:Y17,Y20,Y22,Y26:Y27,Y30,Y24)</f>
+        <v>0.75</v>
       </c>
       <c r="Z35" s="5">
-        <f>MEDIAN(Z3,Z10:Z11,Z16:Z17,Z22,Z26:Z27,Z30)</f>
+        <f>MEDIAN(Z3,Z10:Z12,Z14:Z17,Z22,Z26:Z27,Z30,Z6,Z20,Z24)</f>
         <v>0.5</v>
       </c>
       <c r="AA35" s="3">
@@ -5635,12 +5619,12 @@
         <v>0.98461538461538467</v>
       </c>
       <c r="AC35" s="6">
-        <f>MEDIAN(AC3,AC6,AC10:AC12,AC15:AC17,AC20,AC22,AC26,AC30)</f>
+        <f>MEDIAN(AC3,AC6,AC10:AC12,AC14:AC17,AC20,AC22,AC26:AC27,AC30,AC24)</f>
         <v>1</v>
       </c>
       <c r="AD35" s="3">
-        <f>MEDIAN(AD3,AD10:AD11,AD16:AD17,AD22,AD26:AD27,AD30)</f>
-        <v>0.66666666666666663</v>
+        <f>MEDIAN(AD3,AD10:AD12,AD14:AD17,AD22,AD26:AD27,AD30,AD20,AD24)</f>
+        <v>0.73333333333333339</v>
       </c>
       <c r="AE35">
         <f>MEDIAN(AE2:AE31)</f>
@@ -5651,11 +5635,11 @@
         <v>1</v>
       </c>
       <c r="AG35" s="3">
-        <f>MEDIAN(AG3,AG6,AG10:AG12,AG15:AG17,AG20,AG22,AG26,AG30)</f>
-        <v>0.76388888888888884</v>
+        <f>MEDIAN(AG3,AG6,AG10:AG12,AG14:AG17,AG20,AG22,AG26:AG27,AG30,AG24)</f>
+        <v>0.78947368421052633</v>
       </c>
       <c r="AH35" s="6">
-        <f>MEDIAN(AH3,AH10:AH11,AH16:AH17,AH22,AH26:AH27,AH30)</f>
+        <f>MEDIAN(AH3,AH10:AH12,AH14:AH17,AH22,AH26:AH27,AH30,AH24)</f>
         <v>1</v>
       </c>
       <c r="AQ35" s="5">
